--- a/data/saunas.xlsx
+++ b/data/saunas.xlsx
@@ -1158,7 +1158,7 @@
     <t>60001 Squamish Valley Rd</t>
   </si>
   <si>
-    <t>Brackendale</t>
+    <t>Squamish</t>
   </si>
   <si>
     <t>V0N 1H0</t>
@@ -12125,7 +12125,8 @@
     <col min="1" max="1" width="52.5" style="1" customWidth="1"/>
     <col min="2" max="12" width="9.9375" style="1" customWidth="1"/>
     <col min="13" max="13" width="43.8516" style="1" customWidth="1"/>
-    <col min="14" max="15" width="8.85156" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
+    <col min="15" max="15" width="47.3906" style="1" customWidth="1"/>
     <col min="16" max="16" width="28.3516" style="1" customWidth="1"/>
     <col min="17" max="17" width="23.6719" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.85156" style="1" customWidth="1"/>
